--- a/Data/Timecard_SignOFF.xlsx
+++ b/Data/Timecard_SignOFF.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEACB15A-E2BD-4B9D-BBFD-ADC6FA50205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ManagerID</t>
   </si>
@@ -32,39 +31,36 @@
     <t>WFMManagerPassword@09</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>Failed:Button Disabled For This Manager</t>
   </si>
   <si>
     <t>WFMManagerPassword@06</t>
-  </si>
-  <si>
-    <t>Failed:Button Disabled For This Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF9CDCFE"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
+      <color rgb="FF2C2C2C"/>
+      <family val="2"/>
       <sz val="6"/>
-      <color rgb="FF2C2C2C"/>
       <name val="Noto Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -76,7 +72,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +115,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -133,7 +129,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -412,21 +408,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0" zoomScale="140" zoomScaleNormal="140">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.65" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="3" width="27.08984375" customWidth="1"/>
     <col min="4" max="4" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.65" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10648949</v>
       </c>
@@ -454,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.65" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10648831</v>
       </c>
@@ -464,16 +460,13 @@
       <c r="C3" s="4">
         <v>10649075</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.65" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A4:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"""Failed"""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
@@ -481,11 +474,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Data/Timecard_SignOFF.xlsx
+++ b/Data/Timecard_SignOFF.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEACB15A-E2BD-4B9D-BBFD-ADC6FA50205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ManagerID</t>
   </si>
@@ -31,36 +32,39 @@
     <t>WFMManagerPassword@09</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>WFMManagerPassword@06</t>
+  </si>
+  <si>
     <t>Failed:Button Disabled For This Manager</t>
-  </si>
-  <si>
-    <t>WFMManagerPassword@06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="Consolas"/>
     </font>
     <font>
+      <sz val="6"/>
       <color rgb="FF2C2C2C"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <sz val="6"/>
-      <name val="Noto Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,7 +76,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,7 +119,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -129,7 +133,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -408,21 +412,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="140" zoomScaleNormal="140">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="3" width="27.08984375" customWidth="1"/>
     <col min="4" max="4" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.65" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10648949</v>
       </c>
@@ -450,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.65" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10648831</v>
       </c>
@@ -460,13 +464,16 @@
       <c r="C3" s="4">
         <v>10649075</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="15.65" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A4:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"""Failed"""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
@@ -474,11 +481,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>